--- a/Code/Results/Cases/Case_6_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.876201907926713</v>
+        <v>3.8762019079266</v>
       </c>
       <c r="C2">
-        <v>1.065439828585511</v>
+        <v>1.065439828585284</v>
       </c>
       <c r="D2">
         <v>0.0397609517637747</v>
       </c>
       <c r="E2">
-        <v>0.1273073984309008</v>
+        <v>0.1273073984309363</v>
       </c>
       <c r="F2">
         <v>2.481885710068326</v>
       </c>
       <c r="G2">
-        <v>0.0007677095019633988</v>
+        <v>0.0007677095020204643</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.24572670643002</v>
+        <v>1.245726706430048</v>
       </c>
       <c r="N2">
-        <v>1.048969886037526</v>
+        <v>1.048969886037568</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.3336670931306</v>
+        <v>3.333667093130487</v>
       </c>
       <c r="C3">
         <v>0.9146375268833538</v>
       </c>
       <c r="D3">
-        <v>0.03874096906674396</v>
+        <v>0.03874096906684699</v>
       </c>
       <c r="E3">
         <v>0.1100376120638487</v>
@@ -483,7 +483,7 @@
         <v>2.193492080235529</v>
       </c>
       <c r="G3">
-        <v>0.0007777246182439096</v>
+        <v>0.0007777246181881946</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.070437505374642</v>
+        <v>1.070437505374628</v>
       </c>
       <c r="N3">
-        <v>1.060379695570077</v>
+        <v>1.060379695570134</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.007207072527194</v>
+        <v>3.007207072526967</v>
       </c>
       <c r="C4">
-        <v>0.8238533119880742</v>
+        <v>0.8238533119879037</v>
       </c>
       <c r="D4">
-        <v>0.03825699294340268</v>
+        <v>0.03825699294330676</v>
       </c>
       <c r="E4">
-        <v>0.09976752479006379</v>
+        <v>0.09976752479008155</v>
       </c>
       <c r="F4">
-        <v>2.022740127635004</v>
+        <v>2.022740127634989</v>
       </c>
       <c r="G4">
-        <v>0.0007840082265645607</v>
+        <v>0.0007840082265654303</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9652098184898179</v>
+        <v>0.9652098184898321</v>
       </c>
       <c r="N4">
-        <v>1.069628339020852</v>
+        <v>1.069628339020881</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.875593556516151</v>
+        <v>2.875593556516208</v>
       </c>
       <c r="C5">
-        <v>0.7872388981595293</v>
+        <v>0.7872388981600409</v>
       </c>
       <c r="D5">
-        <v>0.0380917329385646</v>
+        <v>0.0380917329385575</v>
       </c>
       <c r="E5">
-        <v>0.09565459941173415</v>
+        <v>0.09565459941170928</v>
       </c>
       <c r="F5">
-        <v>1.954553030662325</v>
+        <v>1.954553030662311</v>
       </c>
       <c r="G5">
-        <v>0.0007866053148918811</v>
+        <v>0.0007866053147903679</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9228420485527167</v>
+        <v>0.9228420485527025</v>
       </c>
       <c r="N5">
-        <v>1.073915626605739</v>
+        <v>1.073915626605753</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.853818186235515</v>
+        <v>2.853818186235458</v>
       </c>
       <c r="C6">
-        <v>0.7811800890185339</v>
+        <v>0.7811800890189886</v>
       </c>
       <c r="D6">
-        <v>0.03806611875759103</v>
+        <v>0.03806611875747379</v>
       </c>
       <c r="E6">
-        <v>0.09497569502339331</v>
+        <v>0.09497569502338976</v>
       </c>
       <c r="F6">
-        <v>1.943309604129183</v>
+        <v>1.943309604129169</v>
       </c>
       <c r="G6">
-        <v>0.000787038835957321</v>
+        <v>0.00078703883590725</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9158354542883487</v>
+        <v>0.9158354542883558</v>
       </c>
       <c r="N6">
         <v>1.074657591764506</v>
@@ -659,19 +659,19 @@
         <v>3.005426646141814</v>
       </c>
       <c r="C7">
-        <v>0.8233580672120695</v>
+        <v>0.823358067211899</v>
       </c>
       <c r="D7">
-        <v>0.03825463949755914</v>
+        <v>0.03825463949746677</v>
       </c>
       <c r="E7">
-        <v>0.09971177856521152</v>
+        <v>0.09971177856524349</v>
       </c>
       <c r="F7">
         <v>2.021815123878326</v>
       </c>
       <c r="G7">
-        <v>0.0007840431008536853</v>
+        <v>0.000784043100745848</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9646364659120721</v>
+        <v>0.9646364659120792</v>
       </c>
       <c r="N7">
-        <v>1.069684116810279</v>
+        <v>1.069684116810294</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.68759328296477</v>
+        <v>3.687593282964713</v>
       </c>
       <c r="C8">
-        <v>1.013020639575558</v>
+        <v>1.013020639575359</v>
       </c>
       <c r="D8">
-        <v>0.0393772869986293</v>
+        <v>0.0393772869985014</v>
       </c>
       <c r="E8">
-        <v>0.1212760939877846</v>
+        <v>0.1212760939877171</v>
       </c>
       <c r="F8">
         <v>2.381011857481056</v>
       </c>
       <c r="G8">
-        <v>0.0007711365545756746</v>
+        <v>0.0007711365545740302</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.184731323187862</v>
+        <v>1.184731323187847</v>
       </c>
       <c r="N8">
-        <v>1.05240945717523</v>
+        <v>1.052409457175273</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.091152967847506</v>
+        <v>5.091152967847393</v>
       </c>
       <c r="C9">
         <v>1.403121305530021</v>
@@ -759,13 +759,13 @@
         <v>0.04290692059600332</v>
       </c>
       <c r="E9">
-        <v>0.1668144786073995</v>
+        <v>0.1668144786073782</v>
       </c>
       <c r="F9">
-        <v>3.145542919539082</v>
+        <v>3.145542919539054</v>
       </c>
       <c r="G9">
-        <v>0.0007467542854704887</v>
+        <v>0.0007467542853431768</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>1.640036522131268</v>
       </c>
       <c r="N9">
-        <v>1.03867374094213</v>
+        <v>1.038673740942144</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>1.707025755590621</v>
       </c>
       <c r="D10">
-        <v>0.04663850347808562</v>
+        <v>0.04663850347807141</v>
       </c>
       <c r="E10">
-        <v>0.2032389094352567</v>
+        <v>0.2032389094352638</v>
       </c>
       <c r="F10">
-        <v>3.760077389336004</v>
+        <v>3.760077389335976</v>
       </c>
       <c r="G10">
-        <v>0.0007291833442588129</v>
+        <v>0.0007291833443148739</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>1.996558707462114</v>
       </c>
       <c r="N10">
-        <v>1.044660104174767</v>
+        <v>1.044660104174824</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.699541326941699</v>
+        <v>6.699541326941869</v>
       </c>
       <c r="C11">
-        <v>1.850737657278273</v>
+        <v>1.850737657278785</v>
       </c>
       <c r="D11">
-        <v>0.0486753149571868</v>
+        <v>0.04867531495717259</v>
       </c>
       <c r="E11">
-        <v>0.2207248285357508</v>
+        <v>0.2207248285357153</v>
       </c>
       <c r="F11">
-        <v>4.055517929307115</v>
+        <v>4.055517929307143</v>
       </c>
       <c r="G11">
-        <v>0.0007212040704416467</v>
+        <v>0.0007212040705667968</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>2.165593760040508</v>
       </c>
       <c r="N11">
-        <v>1.051914859760757</v>
+        <v>1.051914859760785</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.898250180905677</v>
+        <v>6.898250180905563</v>
       </c>
       <c r="C12">
-        <v>1.906116756922927</v>
+        <v>1.906116756923041</v>
       </c>
       <c r="D12">
-        <v>0.04950498212740229</v>
+        <v>0.04950498212711807</v>
       </c>
       <c r="E12">
-        <v>0.2275058332386664</v>
+        <v>0.2275058332386379</v>
       </c>
       <c r="F12">
-        <v>4.170124668615586</v>
+        <v>4.170124668615557</v>
       </c>
       <c r="G12">
-        <v>0.000718178441944258</v>
+        <v>0.0007181784420014204</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>2.230798131814893</v>
       </c>
       <c r="N12">
-        <v>1.055420106606761</v>
+        <v>1.055420106606775</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.855296829545239</v>
+        <v>6.855296829545125</v>
       </c>
       <c r="C13">
-        <v>1.894144150170348</v>
+        <v>1.894144150170519</v>
       </c>
       <c r="D13">
-        <v>0.0493235290378351</v>
+        <v>0.04932352903760062</v>
       </c>
       <c r="E13">
-        <v>0.2260378324639234</v>
+        <v>0.2260378324639376</v>
       </c>
       <c r="F13">
-        <v>4.145312683336527</v>
+        <v>4.145312683336556</v>
       </c>
       <c r="G13">
-        <v>0.0007188303532533257</v>
+        <v>0.0007188303531969055</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.216698333181043</v>
+        <v>2.216698333181071</v>
       </c>
       <c r="N13">
-        <v>1.054629569509473</v>
+        <v>1.054629569509459</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>6.71581906813816</v>
       </c>
       <c r="C14">
-        <v>1.855273415301951</v>
+        <v>1.855273415302179</v>
       </c>
       <c r="D14">
-        <v>0.04874234059013816</v>
+        <v>0.04874234059001736</v>
       </c>
       <c r="E14">
         <v>0.2212793325361702</v>
       </c>
       <c r="F14">
-        <v>4.064889145861173</v>
+        <v>4.064889145861144</v>
       </c>
       <c r="G14">
-        <v>0.0007209552698448427</v>
+        <v>0.000720955269921004</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.170932888629025</v>
+        <v>2.170932888628968</v>
       </c>
       <c r="N14">
-        <v>1.052187367116574</v>
+        <v>1.052187367116531</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.630835773072306</v>
+        <v>6.630835773072249</v>
       </c>
       <c r="C15">
-        <v>1.831594464300338</v>
+        <v>1.831594464300167</v>
       </c>
       <c r="D15">
-        <v>0.04839426441257899</v>
+        <v>0.04839426441271399</v>
       </c>
       <c r="E15">
         <v>0.2183862921657465</v>
       </c>
       <c r="F15">
-        <v>4.015997496002399</v>
+        <v>4.015997496002427</v>
       </c>
       <c r="G15">
-        <v>0.0007222561176652231</v>
+        <v>0.0007222561175935024</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.143062646979743</v>
+        <v>2.143062646979772</v>
       </c>
       <c r="N15">
-        <v>1.050793655061312</v>
+        <v>1.050793655061256</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.150266455124097</v>
+        <v>6.150266455124154</v>
       </c>
       <c r="C16">
-        <v>1.697757869272721</v>
+        <v>1.697757869272493</v>
       </c>
       <c r="D16">
-        <v>0.04651299750872795</v>
+        <v>0.04651299750867111</v>
       </c>
       <c r="E16">
-        <v>0.2021168553072954</v>
+        <v>0.2021168553072172</v>
       </c>
       <c r="F16">
-        <v>3.741125632759349</v>
+        <v>3.741125632759406</v>
       </c>
       <c r="G16">
-        <v>0.0007297045942642429</v>
+        <v>0.0007297045943290836</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.985666783890267</v>
+        <v>1.985666783890252</v>
       </c>
       <c r="N16">
         <v>1.044285841317958</v>
@@ -1129,19 +1129,19 @@
         <v>5.860711076516452</v>
       </c>
       <c r="C17">
-        <v>1.617166469095594</v>
+        <v>1.617166469095764</v>
       </c>
       <c r="D17">
-        <v>0.04545205317182166</v>
+        <v>0.04545205317169376</v>
       </c>
       <c r="E17">
-        <v>0.1923889312547615</v>
+        <v>0.1923889312547686</v>
       </c>
       <c r="F17">
         <v>3.576862501054734</v>
       </c>
       <c r="G17">
-        <v>0.00073427355819633</v>
+        <v>0.0007342735579477718</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>1.891001865691649</v>
       </c>
       <c r="N17">
-        <v>1.041524057305637</v>
+        <v>1.041524057305665</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>5.695919068365242</v>
       </c>
       <c r="C18">
-        <v>1.571314767677791</v>
+        <v>1.571314767677563</v>
       </c>
       <c r="D18">
-        <v>0.04487309091176428</v>
+        <v>0.04487309091179981</v>
       </c>
       <c r="E18">
         <v>0.1868780033871715</v>
@@ -1188,7 +1188,7 @@
         <v>3.483847125554803</v>
       </c>
       <c r="G18">
-        <v>0.0007369032243905562</v>
+        <v>0.0007369032243927052</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.8371834935718</v>
+        <v>1.837183493571814</v>
       </c>
       <c r="N18">
-        <v>1.040354706748346</v>
+        <v>1.040354706748303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.640408319981191</v>
+        <v>5.640408319981077</v>
       </c>
       <c r="C19">
-        <v>1.555871673873185</v>
+        <v>1.55587167387273</v>
       </c>
       <c r="D19">
-        <v>0.04468217159291754</v>
+        <v>0.04468217159290333</v>
       </c>
       <c r="E19">
-        <v>0.1850258154775446</v>
+        <v>0.1850258154776157</v>
       </c>
       <c r="F19">
         <v>3.452592902165946</v>
       </c>
       <c r="G19">
-        <v>0.0007377940469372819</v>
+        <v>0.0007377940469358772</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.819064000634796</v>
+        <v>1.819064000634839</v>
       </c>
       <c r="N19">
-        <v>1.040027834358966</v>
+        <v>1.040027834358881</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.89134948572439</v>
+        <v>5.891349485724106</v>
       </c>
       <c r="C20">
-        <v>1.625692417272262</v>
+        <v>1.625692417272489</v>
       </c>
       <c r="D20">
-        <v>0.04556169319825187</v>
+        <v>0.04556169319820214</v>
       </c>
       <c r="E20">
-        <v>0.1934155742146402</v>
+        <v>0.1934155742146828</v>
       </c>
       <c r="F20">
-        <v>3.594194048688621</v>
+        <v>3.594194048688593</v>
       </c>
       <c r="G20">
-        <v>0.0007337870464871729</v>
+        <v>0.0007337870465625076</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>1.901012467093707</v>
       </c>
       <c r="N20">
-        <v>1.0417739623377</v>
+        <v>1.041773962337672</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.756691926211488</v>
+        <v>6.756691926211317</v>
       </c>
       <c r="C21">
-        <v>1.866663142473101</v>
+        <v>1.866663142472873</v>
       </c>
       <c r="D21">
-        <v>0.04891137962511749</v>
+        <v>0.04891137962525249</v>
       </c>
       <c r="E21">
-        <v>0.2226724445654682</v>
+        <v>0.2226724445655464</v>
       </c>
       <c r="F21">
         <v>4.08843345054251</v>
       </c>
       <c r="G21">
-        <v>0.0007203312936488377</v>
+        <v>0.0007203312937200813</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.184341033100864</v>
+        <v>2.184341033100878</v>
       </c>
       <c r="N21">
         <v>1.052883182988921</v>
@@ -1364,19 +1364,19 @@
         <v>7.341924072768848</v>
       </c>
       <c r="C22">
-        <v>2.029843196576167</v>
+        <v>2.029843196576621</v>
       </c>
       <c r="D22">
-        <v>0.05144675578939939</v>
+        <v>0.05144675578938518</v>
       </c>
       <c r="E22">
-        <v>0.2427398826608993</v>
+        <v>0.2427398826608851</v>
       </c>
       <c r="F22">
-        <v>4.427627618996468</v>
+        <v>4.427627618996439</v>
       </c>
       <c r="G22">
-        <v>0.0007115099373105427</v>
+        <v>0.0007115099373834822</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.376601490548552</v>
+        <v>2.376601490548538</v>
       </c>
       <c r="N22">
-        <v>1.064626521621889</v>
+        <v>1.06462652162196</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>1.942164314957381</v>
       </c>
       <c r="D23">
-        <v>0.0500582109140808</v>
+        <v>0.05005821091370422</v>
       </c>
       <c r="E23">
         <v>0.2319323325076894</v>
       </c>
       <c r="F23">
-        <v>4.244943616238288</v>
+        <v>4.244943616238317</v>
       </c>
       <c r="G23">
-        <v>0.0007162228449104635</v>
+        <v>0.00071622284498285</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.273260214370509</v>
+        <v>2.273260214370538</v>
       </c>
       <c r="N23">
-        <v>1.05790818973118</v>
+        <v>1.057908189731165</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>5.877492678927979</v>
       </c>
       <c r="C24">
-        <v>1.6218363493374</v>
+        <v>1.621836349337343</v>
       </c>
       <c r="D24">
-        <v>0.04551202911663665</v>
+        <v>0.04551202911677166</v>
       </c>
       <c r="E24">
-        <v>0.1929511762065701</v>
+        <v>0.192951176206634</v>
       </c>
       <c r="F24">
-        <v>3.58635406031911</v>
+        <v>3.586354060319081</v>
       </c>
       <c r="G24">
-        <v>0.0007340069889317042</v>
+        <v>0.000734006988931279</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>1.896484802683531</v>
       </c>
       <c r="N24">
-        <v>1.041659684734825</v>
+        <v>1.041659684734839</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.702414405109437</v>
+        <v>4.702414405109494</v>
       </c>
       <c r="C25">
-        <v>1.295057350232241</v>
+        <v>1.295057350232412</v>
       </c>
       <c r="D25">
-        <v>0.04177920934579049</v>
+        <v>0.04177920934591839</v>
       </c>
       <c r="E25">
-        <v>0.1540544722249066</v>
+        <v>0.1540544722248995</v>
       </c>
       <c r="F25">
         <v>2.930751635132509</v>
       </c>
       <c r="G25">
-        <v>0.0007532721345184457</v>
+        <v>0.0007532721345750671</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.51361419405653</v>
+        <v>1.513614194056501</v>
       </c>
       <c r="N25">
-        <v>1.039875666927927</v>
+        <v>1.039875666927998</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.8762019079266</v>
+        <v>2.199313540331673</v>
       </c>
       <c r="C2">
-        <v>1.065439828585284</v>
+        <v>0.784504262674858</v>
       </c>
       <c r="D2">
-        <v>0.0397609517637747</v>
+        <v>0.02079784926619865</v>
       </c>
       <c r="E2">
-        <v>0.1273073984309363</v>
+        <v>0.1969622947017626</v>
       </c>
       <c r="F2">
-        <v>2.481885710068326</v>
+        <v>0.8529715554638955</v>
       </c>
       <c r="G2">
-        <v>0.0007677095020204643</v>
+        <v>0.7800766620358672</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01005963053233216</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4804777622900787</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3675285297984843</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.245726706430048</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.048969886037568</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9621321849012645</v>
+      </c>
+      <c r="P2">
+        <v>0.6089735925710222</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.333667093130487</v>
+        <v>1.910515663749294</v>
       </c>
       <c r="C3">
-        <v>0.9146375268833538</v>
+        <v>0.6835552065232093</v>
       </c>
       <c r="D3">
-        <v>0.03874096906684699</v>
+        <v>0.01959990126511713</v>
       </c>
       <c r="E3">
-        <v>0.1100376120638487</v>
+        <v>0.1715393008780808</v>
       </c>
       <c r="F3">
-        <v>2.193492080235529</v>
+        <v>0.7678084659540758</v>
       </c>
       <c r="G3">
-        <v>0.0007777246181881946</v>
+        <v>0.6991925965502759</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006709010865642462</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4486007640573746</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3500567047063115</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.070437505374628</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.060379695570134</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8326030523812165</v>
+      </c>
+      <c r="P3">
+        <v>0.6422510446380691</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.007207072526967</v>
+        <v>1.733018579896537</v>
       </c>
       <c r="C4">
-        <v>0.8238533119879037</v>
+        <v>0.6221741135712477</v>
       </c>
       <c r="D4">
-        <v>0.03825699294330676</v>
+        <v>0.01886668722406526</v>
       </c>
       <c r="E4">
-        <v>0.09976752479008155</v>
+        <v>0.1563722957459248</v>
       </c>
       <c r="F4">
-        <v>2.022740127634989</v>
+        <v>0.7165818311990364</v>
       </c>
       <c r="G4">
-        <v>0.0007840082265654303</v>
+        <v>0.6505328526782677</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004975995266002009</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4296410847603056</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3397677699814601</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9652098184898321</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.069628339020881</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7537313219388651</v>
+      </c>
+      <c r="P4">
+        <v>0.6635210875272435</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.875593556516208</v>
+        <v>1.659316916071873</v>
       </c>
       <c r="C5">
-        <v>0.7872388981600409</v>
+        <v>0.5979248679138038</v>
       </c>
       <c r="D5">
-        <v>0.0380917329385575</v>
+        <v>0.01859990153729996</v>
       </c>
       <c r="E5">
-        <v>0.09565459941170928</v>
+        <v>0.1503101455387892</v>
       </c>
       <c r="F5">
-        <v>1.954553030662311</v>
+        <v>0.6951490907656819</v>
       </c>
       <c r="G5">
-        <v>0.0007866053147903679</v>
+        <v>0.6300331381848139</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004395817941340141</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4216034913900728</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3351156415360208</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9228420485527025</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.073915626605753</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7216607188666515</v>
+      </c>
+      <c r="P5">
+        <v>0.6724182126739198</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.853818186235458</v>
+        <v>1.645479031678775</v>
       </c>
       <c r="C6">
-        <v>0.7811800890189886</v>
+        <v>0.5946830606238223</v>
       </c>
       <c r="D6">
-        <v>0.03806611875747379</v>
+        <v>0.01859433829582358</v>
       </c>
       <c r="E6">
-        <v>0.09497569502338976</v>
+        <v>0.149332445510737</v>
       </c>
       <c r="F6">
-        <v>1.943309604129169</v>
+        <v>0.6906269647490149</v>
       </c>
       <c r="G6">
-        <v>0.00078703883590725</v>
+        <v>0.6255461847713804</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004373775209253417</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4197226728341406</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3336639277662883</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9158354542883558</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.074657591764506</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7162575944107772</v>
+      </c>
+      <c r="P6">
+        <v>0.6739420893359913</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.005426646141814</v>
+        <v>1.727649221584841</v>
       </c>
       <c r="C7">
-        <v>0.823358067211899</v>
+        <v>0.6239760114797264</v>
       </c>
       <c r="D7">
-        <v>0.03825463949746677</v>
+        <v>0.01896926673527588</v>
       </c>
       <c r="E7">
-        <v>0.09971177856524349</v>
+        <v>0.156353795081202</v>
       </c>
       <c r="F7">
-        <v>2.021815123878326</v>
+        <v>0.713617004424691</v>
       </c>
       <c r="G7">
-        <v>0.000784043100745848</v>
+        <v>0.6472549661491485</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005142577206883381</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.428015463040353</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3378303438679957</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9646364659120792</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.069684116810294</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.753062508105856</v>
+      </c>
+      <c r="P7">
+        <v>0.6637481926106954</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.687593282964713</v>
+        <v>2.093887815678329</v>
       </c>
       <c r="C8">
-        <v>1.013020639575359</v>
+        <v>0.7524042881067032</v>
       </c>
       <c r="D8">
-        <v>0.0393772869985014</v>
+        <v>0.02052730898106248</v>
       </c>
       <c r="E8">
-        <v>0.1212760939877171</v>
+        <v>0.1881821763974685</v>
       </c>
       <c r="F8">
-        <v>2.381011857481056</v>
+        <v>0.8198057397323595</v>
       </c>
       <c r="G8">
-        <v>0.0007711365545740302</v>
+        <v>0.7479633969359867</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009030220714569381</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4673355335660716</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3589179837788592</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.184731323187847</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.052409457175273</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9169961059550005</v>
+      </c>
+      <c r="P8">
+        <v>0.6204775584762832</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.091152967847393</v>
+        <v>2.819828242427036</v>
       </c>
       <c r="C9">
-        <v>1.403121305530021</v>
+        <v>1.006231444377136</v>
       </c>
       <c r="D9">
-        <v>0.04290692059600332</v>
+        <v>0.02341085523626063</v>
       </c>
       <c r="E9">
-        <v>0.1668144786073782</v>
+        <v>0.2545717281947972</v>
       </c>
       <c r="F9">
-        <v>3.145542919539054</v>
+        <v>1.042589843787539</v>
       </c>
       <c r="G9">
-        <v>0.0007467542853431768</v>
+        <v>0.9601377311860517</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01930849126341894</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5526294380748169</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4075625614551086</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.640036522131268</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.038673740942144</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.245404595897654</v>
+      </c>
+      <c r="P9">
+        <v>0.5423126205988797</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.183556884369182</v>
+        <v>3.352569793232192</v>
       </c>
       <c r="C10">
-        <v>1.707025755590621</v>
+        <v>1.198978615438449</v>
       </c>
       <c r="D10">
-        <v>0.04663850347807141</v>
+        <v>0.02560593645413078</v>
       </c>
       <c r="E10">
-        <v>0.2032389094352638</v>
+        <v>0.3067481075673513</v>
       </c>
       <c r="F10">
-        <v>3.760077389335976</v>
+        <v>1.212762110555857</v>
       </c>
       <c r="G10">
-        <v>0.0007291833443148739</v>
+        <v>1.122114319145368</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02918298756547522</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6187549205295397</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.445414492577207</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.996558707462114</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.044660104174824</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.492438951485823</v>
+      </c>
+      <c r="P10">
+        <v>0.4898113577896162</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.699541326941869</v>
+        <v>3.588166255065516</v>
       </c>
       <c r="C11">
-        <v>1.850737657278785</v>
+        <v>1.291805133271282</v>
       </c>
       <c r="D11">
-        <v>0.04867531495717259</v>
+        <v>0.0267984479198482</v>
       </c>
       <c r="E11">
-        <v>0.2207248285357153</v>
+        <v>0.3315380819860962</v>
       </c>
       <c r="F11">
-        <v>4.055517929307143</v>
+        <v>1.287844362482645</v>
       </c>
       <c r="G11">
-        <v>0.0007212040705667968</v>
+        <v>1.192878695672306</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03451747909670377</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6474421775945416</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4603492311478021</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.165593760040508</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.051914859760785</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.60612665400923</v>
+      </c>
+      <c r="P11">
+        <v>0.4676005690574065</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.898250180905563</v>
+        <v>3.681529180954215</v>
       </c>
       <c r="C12">
-        <v>1.906116756923041</v>
+        <v>1.325292251553265</v>
       </c>
       <c r="D12">
-        <v>0.04950498212711807</v>
+        <v>0.02715218159470467</v>
       </c>
       <c r="E12">
-        <v>0.2275058332386379</v>
+        <v>0.3410253172279383</v>
       </c>
       <c r="F12">
-        <v>4.170124668615557</v>
+        <v>1.31901781330329</v>
       </c>
       <c r="G12">
-        <v>0.0007181784420014204</v>
+        <v>1.222703282822152</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03650747101711271</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6598304881294155</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4677874023925526</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.230798131814893</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.055420106606775</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.649703705014275</v>
+      </c>
+      <c r="P12">
+        <v>0.4591228219394523</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.855296829545125</v>
+        <v>3.662221461182298</v>
       </c>
       <c r="C13">
-        <v>1.894144150170519</v>
+        <v>1.317680829663459</v>
       </c>
       <c r="D13">
-        <v>0.04932352903760062</v>
+        <v>0.02705587676878807</v>
       </c>
       <c r="E13">
-        <v>0.2260378324639376</v>
+        <v>0.3389634290170704</v>
       </c>
       <c r="F13">
-        <v>4.145312683336556</v>
+        <v>1.31276890498664</v>
       </c>
       <c r="G13">
-        <v>0.0007188303531969055</v>
+        <v>1.216803661143018</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0360463940577942</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6574243667855626</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4665113582628564</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.216698333181071</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.054629569509459</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.640352004279279</v>
+      </c>
+      <c r="P13">
+        <v>0.4608872548008627</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.71581906813816</v>
+        <v>3.596186362350352</v>
       </c>
       <c r="C14">
-        <v>1.855273415302179</v>
+        <v>1.294390320838147</v>
       </c>
       <c r="D14">
-        <v>0.04874234059001736</v>
+        <v>0.02681900858841502</v>
       </c>
       <c r="E14">
-        <v>0.2212793325361702</v>
+        <v>0.3323105240680135</v>
       </c>
       <c r="F14">
-        <v>4.064889145861144</v>
+        <v>1.290605943843943</v>
       </c>
       <c r="G14">
-        <v>0.000720955269921004</v>
+        <v>1.195554253913485</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03466692992562503</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6485723650903594</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.461099372783238</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.170932888628968</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.052187367116531</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.609725579475182</v>
+      </c>
+      <c r="P14">
+        <v>0.4668770446543711</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.630835773072249</v>
+        <v>3.554174528782767</v>
       </c>
       <c r="C15">
-        <v>1.831594464300167</v>
+        <v>1.280920679888823</v>
       </c>
       <c r="D15">
-        <v>0.04839426441271399</v>
+        <v>0.02671353973765278</v>
       </c>
       <c r="E15">
-        <v>0.2183862921657465</v>
+        <v>0.3282787814929051</v>
       </c>
       <c r="F15">
-        <v>4.015997496002427</v>
+        <v>1.276132122573827</v>
       </c>
       <c r="G15">
-        <v>0.0007222561175935024</v>
+        <v>1.181524393934211</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0338948757575448</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6426431716510876</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4571495400501178</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.143062646979772</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.050793655061256</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.590913491367871</v>
+      </c>
+      <c r="P15">
+        <v>0.4706728405361211</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.150266455124154</v>
+        <v>3.323881146353187</v>
       </c>
       <c r="C16">
-        <v>1.697757869272493</v>
+        <v>1.199348998911546</v>
       </c>
       <c r="D16">
-        <v>0.04651299750867111</v>
+        <v>0.02585831819021678</v>
       </c>
       <c r="E16">
-        <v>0.2021168553072172</v>
+        <v>0.3053373705890294</v>
       </c>
       <c r="F16">
-        <v>3.741125632759406</v>
+        <v>1.199943472758363</v>
       </c>
       <c r="G16">
-        <v>0.0007297045943290836</v>
+        <v>1.108607514823234</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02930345344908059</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6124287992905977</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.438954969091057</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.985666783890252</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.044285841317958</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.48427899384329</v>
+      </c>
+      <c r="P16">
+        <v>0.4921076353025562</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.860711076516452</v>
+        <v>3.182908394757192</v>
       </c>
       <c r="C17">
-        <v>1.617166469095764</v>
+        <v>1.149690279378831</v>
       </c>
       <c r="D17">
-        <v>0.04545205317169376</v>
+        <v>0.02533371027701747</v>
       </c>
       <c r="E17">
-        <v>0.1923889312547686</v>
+        <v>0.291519195512933</v>
       </c>
       <c r="F17">
-        <v>3.576862501054734</v>
+        <v>1.153830112902952</v>
       </c>
       <c r="G17">
-        <v>0.0007342735579477718</v>
+        <v>1.064496735062775</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02665730931893595</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5942197993933291</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4280412596815637</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.891001865691649</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.041524057305665</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.419345677601186</v>
+      </c>
+      <c r="P17">
+        <v>0.5055550512432703</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.695919068365242</v>
+        <v>3.105929396896556</v>
       </c>
       <c r="C18">
-        <v>1.571314767677563</v>
+        <v>1.119320874287496</v>
       </c>
       <c r="D18">
-        <v>0.04487309091179981</v>
+        <v>0.02493192849530601</v>
       </c>
       <c r="E18">
-        <v>0.1868780033871715</v>
+        <v>0.2836018491750423</v>
       </c>
       <c r="F18">
-        <v>3.483847125554803</v>
+        <v>1.12992220257</v>
       </c>
       <c r="G18">
-        <v>0.0007369032243927052</v>
+        <v>1.042029795229524</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02501534672128614</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5852099044131336</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4235073989264677</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.837183493571814</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.040354706748303</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.382391176226122</v>
+      </c>
+      <c r="P18">
+        <v>0.5131518825510355</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.640408319981077</v>
+        <v>3.076790037997796</v>
       </c>
       <c r="C19">
-        <v>1.55587167387273</v>
+        <v>1.110553540761913</v>
       </c>
       <c r="D19">
-        <v>0.04468217159290333</v>
+        <v>0.02487301746719695</v>
       </c>
       <c r="E19">
-        <v>0.1850258154776157</v>
+        <v>0.2809797411784984</v>
       </c>
       <c r="F19">
-        <v>3.452592902165946</v>
+        <v>1.120011982274036</v>
       </c>
       <c r="G19">
-        <v>0.0007377940469358772</v>
+        <v>1.032382259825368</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02460389164656451</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5811365326067346</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4207077306442528</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.819064000634839</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.040027834358881</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.369728881671975</v>
+      </c>
+      <c r="P19">
+        <v>0.5159297061508816</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.891349485724106</v>
+        <v>3.198219664157762</v>
       </c>
       <c r="C20">
-        <v>1.625692417272489</v>
+        <v>1.154810623366586</v>
       </c>
       <c r="D20">
-        <v>0.04556169319820214</v>
+        <v>0.02538168088614512</v>
       </c>
       <c r="E20">
-        <v>0.1934155742146828</v>
+        <v>0.2929764658541885</v>
       </c>
       <c r="F20">
-        <v>3.594194048688593</v>
+        <v>1.158904773727713</v>
       </c>
       <c r="G20">
-        <v>0.0007337870465625076</v>
+        <v>1.069381295334153</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02691854546919092</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5962523182772941</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4293241207165366</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.901012467093707</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.041773962337672</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.426258755260235</v>
+      </c>
+      <c r="P20">
+        <v>0.5040928846821657</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.756691926211317</v>
+        <v>3.611054518327762</v>
       </c>
       <c r="C21">
-        <v>1.866663142472873</v>
+        <v>1.303398089773793</v>
       </c>
       <c r="D21">
-        <v>0.04891137962525249</v>
+        <v>0.0270012870969083</v>
       </c>
       <c r="E21">
-        <v>0.2226724445655464</v>
+        <v>0.3343239485449345</v>
       </c>
       <c r="F21">
-        <v>4.08843345054251</v>
+        <v>1.294408009630274</v>
       </c>
       <c r="G21">
-        <v>0.0007203312937200813</v>
+        <v>1.198760065104182</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03523923099443493</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6496517209892829</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.460824995090654</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.184341033100878</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.052883182988921</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.618448619670033</v>
+      </c>
+      <c r="P21">
+        <v>0.465412399550047</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.341924072768848</v>
+        <v>3.887779256597184</v>
       </c>
       <c r="C22">
-        <v>2.029843196576621</v>
+        <v>1.399141534220405</v>
       </c>
       <c r="D22">
-        <v>0.05144675578938518</v>
+        <v>0.02791698211882832</v>
       </c>
       <c r="E22">
-        <v>0.2427398826608851</v>
+        <v>0.3621848999161799</v>
       </c>
       <c r="F22">
-        <v>4.427627618996439</v>
+        <v>1.388622245715936</v>
       </c>
       <c r="G22">
-        <v>0.0007115099373834822</v>
+        <v>1.289378553830403</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.04105762372039212</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.687629844631573</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4846508465860992</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.376601490548538</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.06462652162196</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.746151270831547</v>
+      </c>
+      <c r="P22">
+        <v>0.4407720824835977</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.027554388393639</v>
+        <v>3.745427198506036</v>
       </c>
       <c r="C23">
-        <v>1.942164314957381</v>
+        <v>1.345280945137233</v>
       </c>
       <c r="D23">
-        <v>0.05005821091370422</v>
+        <v>0.02729237085577196</v>
       </c>
       <c r="E23">
-        <v>0.2319323325076894</v>
+        <v>0.3471470737703726</v>
       </c>
       <c r="F23">
-        <v>4.244943616238317</v>
+        <v>1.341375246104064</v>
       </c>
       <c r="G23">
-        <v>0.00071622284498285</v>
+        <v>1.244447515609551</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.03770760897614522</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6690763525680268</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.474094911044233</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.273260214370538</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.057908189731165</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.67813794318468</v>
+      </c>
+      <c r="P23">
+        <v>0.4534629966182173</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.877492678927979</v>
+        <v>3.199796593963811</v>
       </c>
       <c r="C24">
-        <v>1.621836349337343</v>
+        <v>1.148395409007463</v>
       </c>
       <c r="D24">
-        <v>0.04551202911677166</v>
+        <v>0.02514849563983645</v>
       </c>
       <c r="E24">
-        <v>0.192951176206634</v>
+        <v>0.2921964363485472</v>
       </c>
       <c r="F24">
-        <v>3.586354060319081</v>
+        <v>1.161697241171424</v>
       </c>
       <c r="G24">
-        <v>0.000734006988931279</v>
+        <v>1.072878372784089</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02646382569671424</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.598195123879691</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4322596526522915</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.896484802683531</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.041659684734839</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.423621100087956</v>
+      </c>
+      <c r="P24">
+        <v>0.5042364838964026</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.702414405109494</v>
+        <v>2.615137111286458</v>
       </c>
       <c r="C25">
-        <v>1.295057350232412</v>
+        <v>0.9407213007651762</v>
       </c>
       <c r="D25">
-        <v>0.04177920934591839</v>
+        <v>0.02282844783199778</v>
       </c>
       <c r="E25">
-        <v>0.1540544722248995</v>
+        <v>0.2362052356023199</v>
       </c>
       <c r="F25">
-        <v>2.930751635132509</v>
+        <v>0.9761801407061057</v>
       </c>
       <c r="G25">
-        <v>0.0007532721345750671</v>
+        <v>0.8960439301874175</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01644936133376973</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5261133834170408</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3905068121720205</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.513614194056501</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.039875666927998</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>1.155219616367006</v>
+      </c>
+      <c r="P25">
+        <v>0.5630612949199918</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.199313540331673</v>
+        <v>2.070100715820161</v>
       </c>
       <c r="C2">
-        <v>0.784504262674858</v>
+        <v>0.8366026060899685</v>
       </c>
       <c r="D2">
-        <v>0.02079784926619865</v>
+        <v>0.02482713851961904</v>
       </c>
       <c r="E2">
-        <v>0.1969622947017626</v>
+        <v>0.1985246385362203</v>
       </c>
       <c r="F2">
-        <v>0.8529715554638955</v>
+        <v>0.780932176191186</v>
       </c>
       <c r="G2">
-        <v>0.7800766620358672</v>
+        <v>0.6803009807964031</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01005963053233216</v>
+        <v>0.008871648952719191</v>
       </c>
       <c r="J2">
-        <v>0.4804777622900787</v>
+        <v>0.4924029153191896</v>
       </c>
       <c r="K2">
-        <v>0.3675285297984843</v>
+        <v>0.3187401886851049</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1814317849831468</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07752656781979539</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9621321849012645</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6089735925710222</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9532249888058502</v>
+      </c>
+      <c r="R2">
+        <v>0.6231259305020593</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.910515663749294</v>
+        <v>1.806819330700336</v>
       </c>
       <c r="C3">
-        <v>0.6835552065232093</v>
+        <v>0.7248084925529383</v>
       </c>
       <c r="D3">
-        <v>0.01959990126511713</v>
+        <v>0.02276976023457777</v>
       </c>
       <c r="E3">
-        <v>0.1715393008780808</v>
+        <v>0.1728165981907921</v>
       </c>
       <c r="F3">
-        <v>0.7678084659540758</v>
+        <v>0.7085526748759037</v>
       </c>
       <c r="G3">
-        <v>0.6991925965502759</v>
+        <v>0.6128595745121572</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006709010865642462</v>
+        <v>0.006153567479405098</v>
       </c>
       <c r="J3">
-        <v>0.4486007640573746</v>
+        <v>0.4648725316668987</v>
       </c>
       <c r="K3">
-        <v>0.3500567047063115</v>
+        <v>0.308435014352952</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1839066216032883</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06748863078795253</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8326030523812165</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6422510446380691</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8258786644539597</v>
+      </c>
+      <c r="R3">
+        <v>0.6503517413459647</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.733018579896537</v>
+        <v>1.644495360982802</v>
       </c>
       <c r="C4">
-        <v>0.6221741135712477</v>
+        <v>0.6568961359519676</v>
       </c>
       <c r="D4">
-        <v>0.01886668722406526</v>
+        <v>0.02151722213575624</v>
       </c>
       <c r="E4">
-        <v>0.1563722957459248</v>
+        <v>0.1574836288949228</v>
       </c>
       <c r="F4">
-        <v>0.7165818311990364</v>
+        <v>0.6648251003718144</v>
       </c>
       <c r="G4">
-        <v>0.6505328526782677</v>
+        <v>0.5723091618284428</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004975995266002009</v>
+        <v>0.004730668822702011</v>
       </c>
       <c r="J4">
-        <v>0.4296410847603056</v>
+        <v>0.4481235830482433</v>
       </c>
       <c r="K4">
-        <v>0.3397677699814601</v>
+        <v>0.3023468664452658</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1853803635359661</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06207631652326384</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7537313219388651</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6635210875272435</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7482285737588015</v>
+      </c>
+      <c r="R4">
+        <v>0.6679325220219425</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.659316916071873</v>
+        <v>1.576930170910458</v>
       </c>
       <c r="C5">
-        <v>0.5979248679138038</v>
+        <v>0.630031411896681</v>
       </c>
       <c r="D5">
-        <v>0.01859990153729996</v>
+        <v>0.02104473737339063</v>
       </c>
       <c r="E5">
-        <v>0.1503101455387892</v>
+        <v>0.151355990369801</v>
       </c>
       <c r="F5">
-        <v>0.6951490907656819</v>
+        <v>0.6464184064763145</v>
       </c>
       <c r="G5">
-        <v>0.6300331381848139</v>
+        <v>0.555151823780605</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004395817941340141</v>
+        <v>0.004272532200617185</v>
       </c>
       <c r="J5">
-        <v>0.4216034913900728</v>
+        <v>0.4408983540018312</v>
       </c>
       <c r="K5">
-        <v>0.3351156415360208</v>
+        <v>0.2994205915870936</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1857332478152962</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05991142136848993</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7216607188666515</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6724182126739198</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7166321832460696</v>
+      </c>
+      <c r="R5">
+        <v>0.6754036189702397</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.645479031678775</v>
+        <v>1.564188701866613</v>
       </c>
       <c r="C6">
-        <v>0.5946830606238223</v>
+        <v>0.626373703338345</v>
       </c>
       <c r="D6">
-        <v>0.01859433829582358</v>
+        <v>0.02100991619577286</v>
       </c>
       <c r="E6">
-        <v>0.149332445510737</v>
+        <v>0.1503671572991649</v>
       </c>
       <c r="F6">
-        <v>0.6906269647490149</v>
+        <v>0.6424578347594974</v>
       </c>
       <c r="G6">
-        <v>0.6255461847713804</v>
+        <v>0.5513062597452034</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004373775209253417</v>
+        <v>0.004287827848735049</v>
       </c>
       <c r="J6">
-        <v>0.4197226728341406</v>
+        <v>0.4391704091728172</v>
       </c>
       <c r="K6">
-        <v>0.3336639277662883</v>
+        <v>0.2983278247204453</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.185503862373757</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05938716966892521</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7162575944107772</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6739420893359913</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7113096353748034</v>
+      </c>
+      <c r="R6">
+        <v>0.6767772494446938</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.727649221584841</v>
+        <v>1.637778118229647</v>
       </c>
       <c r="C7">
-        <v>0.6239760114797264</v>
+        <v>0.6573803515316001</v>
       </c>
       <c r="D7">
-        <v>0.01896926673527588</v>
+        <v>0.02171493550316228</v>
       </c>
       <c r="E7">
-        <v>0.156353795081202</v>
+        <v>0.1576116766719124</v>
       </c>
       <c r="F7">
-        <v>0.713617004424691</v>
+        <v>0.6603802868165403</v>
       </c>
       <c r="G7">
-        <v>0.6472549661491485</v>
+        <v>0.5730819585469078</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.005142577206883381</v>
+        <v>0.004937876643203332</v>
       </c>
       <c r="J7">
-        <v>0.428015463040353</v>
+        <v>0.4396650799972264</v>
       </c>
       <c r="K7">
-        <v>0.3378303438679957</v>
+        <v>0.2999382915158932</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1842918346936528</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06134003684083567</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.753062508105856</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6637481926106954</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7470965241195202</v>
+      </c>
+      <c r="R7">
+        <v>0.6685631165292492</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.093887815678329</v>
+        <v>1.968324712447071</v>
       </c>
       <c r="C8">
-        <v>0.7524042881067032</v>
+        <v>0.7963280130244357</v>
       </c>
       <c r="D8">
-        <v>0.02052730898106248</v>
+        <v>0.02456750988047673</v>
       </c>
       <c r="E8">
-        <v>0.1881821763974685</v>
+        <v>0.1901410897445857</v>
       </c>
       <c r="F8">
-        <v>0.8198057397323595</v>
+        <v>0.7468432530394864</v>
       </c>
       <c r="G8">
-        <v>0.7479633969359867</v>
+        <v>0.6658012596895162</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009030220714569381</v>
+        <v>0.008104434775136227</v>
       </c>
       <c r="J8">
-        <v>0.4673355335660716</v>
+        <v>0.4581790282492335</v>
       </c>
       <c r="K8">
-        <v>0.3589179837788592</v>
+        <v>0.3106215418515674</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1803567858634452</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07241314012653532</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9169961059550005</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6204775584762832</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.907266447330187</v>
+      </c>
+      <c r="R8">
+        <v>0.6336015177464844</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.819828242427036</v>
+        <v>2.625485737093527</v>
       </c>
       <c r="C9">
-        <v>1.006231444377136</v>
+        <v>1.076475347440606</v>
       </c>
       <c r="D9">
-        <v>0.02341085523626063</v>
+        <v>0.02972253833888772</v>
       </c>
       <c r="E9">
-        <v>0.2545717281947972</v>
+        <v>0.2574254543357455</v>
       </c>
       <c r="F9">
-        <v>1.042589843787539</v>
+        <v>0.9336664686984619</v>
       </c>
       <c r="G9">
-        <v>0.9601377311860517</v>
+        <v>0.846866953931567</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01930849126341894</v>
+        <v>0.01620550210174976</v>
       </c>
       <c r="J9">
-        <v>0.5526294380748169</v>
+        <v>0.5231981058674648</v>
       </c>
       <c r="K9">
-        <v>0.4075625614551086</v>
+        <v>0.3392678363567612</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1747303504277369</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1020736359377814</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.245404595897654</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5423126205988797</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.228891371955172</v>
+      </c>
+      <c r="R9">
+        <v>0.5707587086575856</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.352569793232192</v>
+        <v>3.094374148624922</v>
       </c>
       <c r="C10">
-        <v>1.198978615438449</v>
+        <v>1.280922653514892</v>
       </c>
       <c r="D10">
-        <v>0.02560593645413078</v>
+        <v>0.03419316866442301</v>
       </c>
       <c r="E10">
-        <v>0.3067481075673513</v>
+        <v>0.311167867875966</v>
       </c>
       <c r="F10">
-        <v>1.212762110555857</v>
+        <v>1.065093055513771</v>
       </c>
       <c r="G10">
-        <v>1.122114319145368</v>
+        <v>1.008040554243536</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02918298756547522</v>
+        <v>0.02384606998954553</v>
       </c>
       <c r="J10">
-        <v>0.6187549205295397</v>
+        <v>0.5323624646122056</v>
       </c>
       <c r="K10">
-        <v>0.445414492577207</v>
+        <v>0.3572469870734238</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1687137117556539</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1260141938611312</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.492438951485823</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.4898113577896162</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.467018923117791</v>
+      </c>
+      <c r="R10">
+        <v>0.5314638303779162</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.588166255065516</v>
+        <v>3.282534331328975</v>
       </c>
       <c r="C11">
-        <v>1.291805133271282</v>
+        <v>1.364663692109445</v>
       </c>
       <c r="D11">
-        <v>0.0267984479198482</v>
+        <v>0.03748691460597087</v>
       </c>
       <c r="E11">
-        <v>0.3315380819860962</v>
+        <v>0.338270074013252</v>
       </c>
       <c r="F11">
-        <v>1.287844362482645</v>
+        <v>1.104533400454514</v>
       </c>
       <c r="G11">
-        <v>1.192878695672306</v>
+        <v>1.120139315425604</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03451747909670377</v>
+        <v>0.02793178712378808</v>
       </c>
       <c r="J11">
-        <v>0.6474421775945416</v>
+        <v>0.4704729108837853</v>
       </c>
       <c r="K11">
-        <v>0.4603492311478021</v>
+        <v>0.3562477133857627</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1626860145142359</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1337791437224141</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.60612665400923</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.4676005690574065</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.57108809785079</v>
+      </c>
+      <c r="R11">
+        <v>0.5192512795127584</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.681529180954215</v>
+        <v>3.355155284877867</v>
       </c>
       <c r="C12">
-        <v>1.325292251553265</v>
+        <v>1.392797171122993</v>
       </c>
       <c r="D12">
-        <v>0.02715218159470467</v>
+        <v>0.03876414971663422</v>
       </c>
       <c r="E12">
-        <v>0.3410253172279383</v>
+        <v>0.3488458165992583</v>
       </c>
       <c r="F12">
-        <v>1.31901781330329</v>
+        <v>1.119601330142075</v>
       </c>
       <c r="G12">
-        <v>1.222703282822152</v>
+        <v>1.171227273664698</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03650747101711271</v>
+        <v>0.02934676435088068</v>
       </c>
       <c r="J12">
-        <v>0.6598304881294155</v>
+        <v>0.442083970542015</v>
       </c>
       <c r="K12">
-        <v>0.4677874023925526</v>
+        <v>0.3564529884406014</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1606342897689039</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.137016184087404</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.649703705014275</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.4591228219394523</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.610262654541515</v>
+      </c>
+      <c r="R12">
+        <v>0.5147886077208597</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.662221461182298</v>
+        <v>3.340368470957173</v>
       </c>
       <c r="C13">
-        <v>1.317680829663459</v>
+        <v>1.386417914494075</v>
       </c>
       <c r="D13">
-        <v>0.02705587676878807</v>
+        <v>0.03845715938047789</v>
       </c>
       <c r="E13">
-        <v>0.3389634290170704</v>
+        <v>0.3465399161668259</v>
       </c>
       <c r="F13">
-        <v>1.31276890498664</v>
+        <v>1.116878131785199</v>
       </c>
       <c r="G13">
-        <v>1.216803661143018</v>
+        <v>1.160444761151524</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0360463940577942</v>
+        <v>0.02900056568078035</v>
       </c>
       <c r="J13">
-        <v>0.6574243667855626</v>
+        <v>0.448635656742681</v>
       </c>
       <c r="K13">
-        <v>0.4665113582628564</v>
+        <v>0.3567190474088662</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1611816605960605</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1364459354511069</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.640352004279279</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.4608872548008627</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.601890470782379</v>
+      </c>
+      <c r="R13">
+        <v>0.5155906889034938</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.596186362350352</v>
+        <v>3.288873993197342</v>
       </c>
       <c r="C14">
-        <v>1.294390320838147</v>
+        <v>1.366843706670863</v>
       </c>
       <c r="D14">
-        <v>0.02681900858841502</v>
+        <v>0.03757840136803026</v>
       </c>
       <c r="E14">
-        <v>0.3323105240680135</v>
+        <v>0.3391277812792666</v>
       </c>
       <c r="F14">
-        <v>1.290605943843943</v>
+        <v>1.105997514829411</v>
       </c>
       <c r="G14">
-        <v>1.195554253913485</v>
+        <v>1.124428309955675</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03466692992562503</v>
+        <v>0.02803015276377696</v>
       </c>
       <c r="J14">
-        <v>0.6485723650903594</v>
+        <v>0.4683357752542463</v>
       </c>
       <c r="K14">
-        <v>0.461099372783238</v>
+        <v>0.3563978627597066</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1625628527294474</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1340995503892231</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.609725579475182</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.4668770446543711</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.574338968582353</v>
+      </c>
+      <c r="R14">
+        <v>0.5188171176013441</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.554174528782767</v>
+        <v>3.255551890391928</v>
       </c>
       <c r="C15">
-        <v>1.280920679888823</v>
+        <v>1.355418341328004</v>
       </c>
       <c r="D15">
-        <v>0.02671353973765278</v>
+        <v>0.03710833203477648</v>
       </c>
       <c r="E15">
-        <v>0.3282787814929051</v>
+        <v>0.3346588188688386</v>
       </c>
       <c r="F15">
-        <v>1.276132122573827</v>
+        <v>1.098214235872149</v>
       </c>
       <c r="G15">
-        <v>1.181524393934211</v>
+        <v>1.102209291994342</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0338948757575448</v>
+        <v>0.02752467927578373</v>
       </c>
       <c r="J15">
-        <v>0.6426431716510876</v>
+        <v>0.4792485822216719</v>
       </c>
       <c r="K15">
-        <v>0.4571495400501178</v>
+        <v>0.3555510929654346</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1631855180478006</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1324019894461621</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.590913491367871</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.4706728405361211</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.557316567881116</v>
+      </c>
+      <c r="R15">
+        <v>0.5211265393459179</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.323881146353187</v>
+        <v>3.069368813366339</v>
       </c>
       <c r="C16">
-        <v>1.199348998911546</v>
+        <v>1.281792103836722</v>
       </c>
       <c r="D16">
-        <v>0.02585831819021678</v>
+        <v>0.03439079545828605</v>
       </c>
       <c r="E16">
-        <v>0.3053373705890294</v>
+        <v>0.3096306600779712</v>
       </c>
       <c r="F16">
-        <v>1.199943472758363</v>
+        <v>1.055015247729401</v>
       </c>
       <c r="G16">
-        <v>1.108607514823234</v>
+        <v>0.9932996172312016</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02930345344908059</v>
+        <v>0.02421801302942761</v>
       </c>
       <c r="J16">
-        <v>0.6124287992905977</v>
+        <v>0.531622234801759</v>
       </c>
       <c r="K16">
-        <v>0.438954969091057</v>
+        <v>0.3525528487398759</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1674126940178873</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1235928039147147</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.48427899384329</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.4921076353025562</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.459430849346788</v>
+      </c>
+      <c r="R16">
+        <v>0.5341942329893037</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.182908394757192</v>
+        <v>2.951235110896846</v>
       </c>
       <c r="C17">
-        <v>1.149690279378831</v>
+        <v>1.233834388545404</v>
       </c>
       <c r="D17">
-        <v>0.02533371027701747</v>
+        <v>0.03295743399650419</v>
       </c>
       <c r="E17">
-        <v>0.291519195512933</v>
+        <v>0.2948858193912187</v>
       </c>
       <c r="F17">
-        <v>1.153830112902952</v>
+        <v>1.025069891738056</v>
       </c>
       <c r="G17">
-        <v>1.064496735062775</v>
+        <v>0.9364499768691417</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02665730931893595</v>
+        <v>0.02227635482548962</v>
       </c>
       <c r="J17">
-        <v>0.5942197993933291</v>
+        <v>0.5510953685213877</v>
       </c>
       <c r="K17">
-        <v>0.4280412596815637</v>
+        <v>0.3493336427485545</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1695201092876388</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1177714150254445</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.419345677601186</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5055550512432703</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.398612478069438</v>
+      </c>
+      <c r="R17">
+        <v>0.5433114382439612</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.105929396896556</v>
+        <v>2.885656384107904</v>
       </c>
       <c r="C18">
-        <v>1.119320874287496</v>
+        <v>1.203273157360854</v>
       </c>
       <c r="D18">
-        <v>0.02493192849530601</v>
+        <v>0.03209485640882193</v>
       </c>
       <c r="E18">
-        <v>0.2836018491750423</v>
+        <v>0.2865594589928904</v>
       </c>
       <c r="F18">
-        <v>1.12992220257</v>
+        <v>1.008826721039185</v>
       </c>
       <c r="G18">
-        <v>1.042029795229524</v>
+        <v>0.9095624183131008</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02501534672128614</v>
+        <v>0.02095106268574831</v>
       </c>
       <c r="J18">
-        <v>0.5852099044131336</v>
+        <v>0.558545154163653</v>
       </c>
       <c r="K18">
-        <v>0.4235073989264677</v>
+        <v>0.3484093480139521</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1710698296343374</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1148438189445713</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.382391176226122</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5131518825510355</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.363577562657554</v>
+      </c>
+      <c r="R18">
+        <v>0.5483931180803836</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.076790037997796</v>
+        <v>2.860335725692948</v>
       </c>
       <c r="C19">
-        <v>1.110553540761913</v>
+        <v>1.194298038239594</v>
       </c>
       <c r="D19">
-        <v>0.02487301746719695</v>
+        <v>0.03190574143127733</v>
       </c>
       <c r="E19">
-        <v>0.2809797411784984</v>
+        <v>0.2838183256386984</v>
       </c>
       <c r="F19">
-        <v>1.120011982274036</v>
+        <v>1.001430733357736</v>
       </c>
       <c r="G19">
-        <v>1.032382259825368</v>
+        <v>0.8991229669503582</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02460389164656451</v>
+        <v>0.02068782414183712</v>
       </c>
       <c r="J19">
-        <v>0.5811365326067346</v>
+        <v>0.5592552703151483</v>
       </c>
       <c r="K19">
-        <v>0.4207077306442528</v>
+        <v>0.3469208294491537</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1711628779170553</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1133994915487904</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.369728881671975</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5159297061508816</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.351502557313481</v>
+      </c>
+      <c r="R19">
+        <v>0.5505790971265512</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.198219664157762</v>
+        <v>2.964248285378687</v>
       </c>
       <c r="C20">
-        <v>1.154810623366586</v>
+        <v>1.238886031484583</v>
       </c>
       <c r="D20">
-        <v>0.02538168088614512</v>
+        <v>0.03309248309528101</v>
       </c>
       <c r="E20">
-        <v>0.2929764658541885</v>
+        <v>0.2964289634083173</v>
       </c>
       <c r="F20">
-        <v>1.158904773727713</v>
+        <v>1.028556572385114</v>
       </c>
       <c r="G20">
-        <v>1.069381295334153</v>
+        <v>0.9423400347611022</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02691854546919092</v>
+        <v>0.02246079624602348</v>
       </c>
       <c r="J20">
-        <v>0.5962523182772941</v>
+        <v>0.5496273967980727</v>
       </c>
       <c r="K20">
-        <v>0.4293241207165366</v>
+        <v>0.3498383038026205</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1693547477993178</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1184497836707372</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.426258755260235</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5040928846821657</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.405132118935768</v>
+      </c>
+      <c r="R20">
+        <v>0.5422599415867033</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.611054518327762</v>
+        <v>3.293547369740622</v>
       </c>
       <c r="C21">
-        <v>1.303398089773793</v>
+        <v>1.369748234095312</v>
       </c>
       <c r="D21">
-        <v>0.0270012870969083</v>
+        <v>0.03833358568640932</v>
       </c>
       <c r="E21">
-        <v>0.3343239485449345</v>
+        <v>0.341925606363688</v>
       </c>
       <c r="F21">
-        <v>1.294408009630274</v>
+        <v>1.100586029705951</v>
       </c>
       <c r="G21">
-        <v>1.198760065104182</v>
+        <v>1.146835607118334</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03523923099443493</v>
+        <v>0.0284914497779658</v>
       </c>
       <c r="J21">
-        <v>0.6496517209892829</v>
+        <v>0.4401460235664985</v>
       </c>
       <c r="K21">
-        <v>0.460824995090654</v>
+        <v>0.352497094799773</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1607780492732154</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1331222319445899</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.618448619670033</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.465412399550047</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.580334569756957</v>
+      </c>
+      <c r="R21">
+        <v>0.5197396916965715</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.887779256597184</v>
+        <v>3.511015556245525</v>
       </c>
       <c r="C22">
-        <v>1.399141534220405</v>
+        <v>1.451392385012127</v>
       </c>
       <c r="D22">
-        <v>0.02791698211882832</v>
+        <v>0.04185060395428053</v>
       </c>
       <c r="E22">
-        <v>0.3621848999161799</v>
+        <v>0.3728042571350798</v>
       </c>
       <c r="F22">
-        <v>1.388622245715936</v>
+        <v>1.149289145469396</v>
       </c>
       <c r="G22">
-        <v>1.289378553830403</v>
+        <v>1.29627485266144</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04105762372039212</v>
+        <v>0.03252882907105015</v>
       </c>
       <c r="J22">
-        <v>0.687629844631573</v>
+        <v>0.3714687405180541</v>
       </c>
       <c r="K22">
-        <v>0.4846508465860992</v>
+        <v>0.3556226801462543</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1557344600738872</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1437008301298945</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.746151270831547</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.4407720824835977</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.69560924607174</v>
+      </c>
+      <c r="R22">
+        <v>0.506333053353643</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.745427198506036</v>
+        <v>3.404666234099295</v>
       </c>
       <c r="C23">
-        <v>1.345280945137233</v>
+        <v>1.408778027084452</v>
       </c>
       <c r="D23">
-        <v>0.02729237085577196</v>
+        <v>0.03952215606274478</v>
       </c>
       <c r="E23">
-        <v>0.3471470737703726</v>
+        <v>0.3557325350537823</v>
       </c>
       <c r="F23">
-        <v>1.341375246104064</v>
+        <v>1.13064316810231</v>
       </c>
       <c r="G23">
-        <v>1.244447515609551</v>
+        <v>1.208336511911824</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03770760897614522</v>
+        <v>0.03011258288449081</v>
       </c>
       <c r="J23">
-        <v>0.6690763525680268</v>
+        <v>0.4232011453921984</v>
       </c>
       <c r="K23">
-        <v>0.474094911044233</v>
+        <v>0.3575583323989662</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1596467382631239</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1395332470928174</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.67813794318468</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.4534629966182173</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.635625552433169</v>
+      </c>
+      <c r="R23">
+        <v>0.5115592523423942</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.199796593963811</v>
+        <v>2.96629999646791</v>
       </c>
       <c r="C24">
-        <v>1.148395409007463</v>
+        <v>1.232391404037742</v>
       </c>
       <c r="D24">
-        <v>0.02514849563983645</v>
+        <v>0.0327826778558844</v>
       </c>
       <c r="E24">
-        <v>0.2921964363485472</v>
+        <v>0.2956122798759822</v>
       </c>
       <c r="F24">
-        <v>1.161697241171424</v>
+        <v>1.031626527871836</v>
       </c>
       <c r="G24">
-        <v>1.072878372784089</v>
+        <v>0.9448736661525743</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02646382569671424</v>
+        <v>0.02192116289283419</v>
       </c>
       <c r="J24">
-        <v>0.598195123879691</v>
+        <v>0.5528583124257977</v>
       </c>
       <c r="K24">
-        <v>0.4322596526522915</v>
+        <v>0.3526070058128496</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1705168193875792</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1193346379848705</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.423621100087956</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5042364838964026</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.402646900113723</v>
+      </c>
+      <c r="R24">
+        <v>0.541601329257503</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.615137111286458</v>
+        <v>2.442876977244282</v>
       </c>
       <c r="C25">
-        <v>0.9407213007651762</v>
+        <v>1.005809593793629</v>
       </c>
       <c r="D25">
-        <v>0.02282844783199778</v>
+        <v>0.02842196840315125</v>
       </c>
       <c r="E25">
-        <v>0.2362052356023199</v>
+        <v>0.2385943767452616</v>
       </c>
       <c r="F25">
-        <v>0.9761801407061057</v>
+        <v>0.8802010100068571</v>
       </c>
       <c r="G25">
-        <v>0.8960439301874175</v>
+        <v>0.7863495728160359</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01644936133376973</v>
+        <v>0.01414062916948744</v>
       </c>
       <c r="J25">
-        <v>0.5261133834170408</v>
+        <v>0.512610660158245</v>
       </c>
       <c r="K25">
-        <v>0.3905068121720205</v>
+        <v>0.3292880132460709</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1755219982815319</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0926336755530599</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.155219616367006</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.5630612949199918</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.141417552077513</v>
+      </c>
+      <c r="R25">
+        <v>0.5875400626373555</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
